--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.35490933333333</v>
+        <v>8.465110333333334</v>
       </c>
       <c r="H2">
-        <v>31.064728</v>
+        <v>25.395331</v>
       </c>
       <c r="I2">
-        <v>0.2600176147259196</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="J2">
-        <v>0.2600176147259196</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4363026666666667</v>
+        <v>0.1416426666666667</v>
       </c>
       <c r="N2">
-        <v>1.308908</v>
+        <v>0.424928</v>
       </c>
       <c r="O2">
-        <v>0.2059614370289619</v>
+        <v>0.06389210658948997</v>
       </c>
       <c r="P2">
-        <v>0.2059614370289619</v>
+        <v>0.06389210658948997</v>
       </c>
       <c r="Q2">
-        <v>4.517874555224889</v>
+        <v>1.199020801240889</v>
       </c>
       <c r="R2">
-        <v>40.660870997024</v>
+        <v>10.791187211168</v>
       </c>
       <c r="S2">
-        <v>0.05355360158179337</v>
+        <v>0.01353965353034948</v>
       </c>
       <c r="T2">
-        <v>0.05355360158179336</v>
+        <v>0.01353965353034948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.35490933333333</v>
+        <v>8.465110333333334</v>
       </c>
       <c r="H3">
-        <v>31.064728</v>
+        <v>25.395331</v>
       </c>
       <c r="I3">
-        <v>0.2600176147259196</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="J3">
-        <v>0.2600176147259196</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.073259999999999</v>
       </c>
       <c r="O3">
-        <v>0.6409422839440123</v>
+        <v>0.6124547266518232</v>
       </c>
       <c r="P3">
-        <v>0.6409422839440123</v>
+        <v>0.6124547266518232</v>
       </c>
       <c r="Q3">
-        <v>14.05941266369778</v>
+        <v>11.49353177211778</v>
       </c>
       <c r="R3">
-        <v>126.53471397328</v>
+        <v>103.44178594906</v>
       </c>
       <c r="S3">
-        <v>0.1666562838481052</v>
+        <v>0.1297879385190699</v>
       </c>
       <c r="T3">
-        <v>0.1666562838481051</v>
+        <v>0.1297879385190699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.35490933333333</v>
+        <v>8.465110333333334</v>
       </c>
       <c r="H4">
-        <v>31.064728</v>
+        <v>25.395331</v>
       </c>
       <c r="I4">
-        <v>0.2600176147259196</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="J4">
-        <v>0.2600176147259196</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3243146666666667</v>
+        <v>0.7173469999999998</v>
       </c>
       <c r="N4">
-        <v>0.972944</v>
+        <v>2.152041</v>
       </c>
       <c r="O4">
-        <v>0.1530962790270258</v>
+        <v>0.3235805429554008</v>
       </c>
       <c r="P4">
-        <v>0.1530962790270258</v>
+        <v>0.3235805429554009</v>
       </c>
       <c r="Q4">
-        <v>3.358248968803556</v>
+        <v>6.072421502285666</v>
       </c>
       <c r="R4">
-        <v>30.224240719232</v>
+        <v>54.65179352057099</v>
       </c>
       <c r="S4">
-        <v>0.03980772929602109</v>
+        <v>0.06857135684894104</v>
       </c>
       <c r="T4">
-        <v>0.03980772929602108</v>
+        <v>0.06857135684894106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.040437</v>
+        <v>8.465110333333334</v>
       </c>
       <c r="H5">
-        <v>39.121311</v>
+        <v>25.395331</v>
       </c>
       <c r="I5">
-        <v>0.3274527293839778</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="J5">
-        <v>0.3274527293839778</v>
+        <v>0.2119143389236239</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4363026666666667</v>
+        <v>0.000161</v>
       </c>
       <c r="N5">
-        <v>1.308908</v>
+        <v>0.000483</v>
       </c>
       <c r="O5">
-        <v>0.2059614370289619</v>
+        <v>7.262380328602412E-05</v>
       </c>
       <c r="P5">
-        <v>0.2059614370289619</v>
+        <v>7.262380328602412E-05</v>
       </c>
       <c r="Q5">
-        <v>5.689577437598667</v>
+        <v>0.001362882763666667</v>
       </c>
       <c r="R5">
-        <v>51.206196938388</v>
+        <v>0.012265944873</v>
       </c>
       <c r="S5">
-        <v>0.06744263470297986</v>
+        <v>1.53900252634771E-05</v>
       </c>
       <c r="T5">
-        <v>0.06744263470297986</v>
+        <v>1.53900252634771E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>39.121311</v>
       </c>
       <c r="I6">
-        <v>0.3274527293839778</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="J6">
-        <v>0.3274527293839778</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.357753333333333</v>
+        <v>0.1416426666666667</v>
       </c>
       <c r="N6">
-        <v>4.073259999999999</v>
+        <v>0.424928</v>
       </c>
       <c r="O6">
-        <v>0.6409422839440123</v>
+        <v>0.06389210658948997</v>
       </c>
       <c r="P6">
-        <v>0.6409422839440123</v>
+        <v>0.06389210658948997</v>
       </c>
       <c r="Q6">
-        <v>17.70569680487333</v>
+        <v>1.847082271178667</v>
       </c>
       <c r="R6">
-        <v>159.35127124386</v>
+        <v>16.623740440608</v>
       </c>
       <c r="S6">
-        <v>0.2098783002550673</v>
+        <v>0.02085773154888393</v>
       </c>
       <c r="T6">
-        <v>0.2098783002550673</v>
+        <v>0.02085773154888393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>39.121311</v>
       </c>
       <c r="I7">
-        <v>0.3274527293839778</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="J7">
-        <v>0.3274527293839778</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3243146666666667</v>
+        <v>1.357753333333333</v>
       </c>
       <c r="N7">
-        <v>0.972944</v>
+        <v>4.073259999999999</v>
       </c>
       <c r="O7">
-        <v>0.1530962790270258</v>
+        <v>0.6124547266518232</v>
       </c>
       <c r="P7">
-        <v>0.1530962790270258</v>
+        <v>0.6124547266518232</v>
       </c>
       <c r="Q7">
-        <v>4.229204978842667</v>
+        <v>17.70569680487333</v>
       </c>
       <c r="R7">
-        <v>38.062844809584</v>
+        <v>159.35127124386</v>
       </c>
       <c r="S7">
-        <v>0.05013179442593065</v>
+        <v>0.1999373155188807</v>
       </c>
       <c r="T7">
-        <v>0.05013179442593065</v>
+        <v>0.1999373155188807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.630808999999999</v>
+        <v>13.040437</v>
       </c>
       <c r="H8">
-        <v>16.892427</v>
+        <v>39.121311</v>
       </c>
       <c r="I8">
-        <v>0.1413927904172128</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="J8">
-        <v>0.1413927904172128</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4363026666666667</v>
+        <v>0.7173469999999998</v>
       </c>
       <c r="N8">
-        <v>1.308908</v>
+        <v>2.152041</v>
       </c>
       <c r="O8">
-        <v>0.2059614370289619</v>
+        <v>0.3235805429554008</v>
       </c>
       <c r="P8">
-        <v>0.2059614370289619</v>
+        <v>0.3235805429554009</v>
       </c>
       <c r="Q8">
-        <v>2.456736982190666</v>
+        <v>9.354518360638997</v>
       </c>
       <c r="R8">
-        <v>22.110632839716</v>
+        <v>84.19066524575098</v>
       </c>
       <c r="S8">
-        <v>0.02912146229986397</v>
+        <v>0.105633644900293</v>
       </c>
       <c r="T8">
-        <v>0.02912146229986397</v>
+        <v>0.105633644900293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.630808999999999</v>
+        <v>13.040437</v>
       </c>
       <c r="H9">
-        <v>16.892427</v>
+        <v>39.121311</v>
       </c>
       <c r="I9">
-        <v>0.1413927904172128</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="J9">
-        <v>0.1413927904172128</v>
+        <v>0.3264524001829507</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.357753333333333</v>
+        <v>0.000161</v>
       </c>
       <c r="N9">
-        <v>4.073259999999999</v>
+        <v>0.000483</v>
       </c>
       <c r="O9">
-        <v>0.6409422839440123</v>
+        <v>7.262380328602412E-05</v>
       </c>
       <c r="P9">
-        <v>0.6409422839440123</v>
+        <v>7.262380328602412E-05</v>
       </c>
       <c r="Q9">
-        <v>7.645249689113331</v>
+        <v>0.002099510357</v>
       </c>
       <c r="R9">
-        <v>68.80724720201998</v>
+        <v>0.018895593213</v>
       </c>
       <c r="S9">
-        <v>0.0906246180232254</v>
+        <v>2.370821489313704E-05</v>
       </c>
       <c r="T9">
-        <v>0.0906246180232254</v>
+        <v>2.370821489313704E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.630808999999999</v>
+        <v>7.170964000000001</v>
       </c>
       <c r="H10">
-        <v>16.892427</v>
+        <v>21.512892</v>
       </c>
       <c r="I10">
-        <v>0.1413927904172128</v>
+        <v>0.1795168681406561</v>
       </c>
       <c r="J10">
-        <v>0.1413927904172128</v>
+        <v>0.1795168681406561</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3243146666666667</v>
+        <v>0.1416426666666667</v>
       </c>
       <c r="N10">
-        <v>0.972944</v>
+        <v>0.424928</v>
       </c>
       <c r="O10">
-        <v>0.1530962790270258</v>
+        <v>0.06389210658948997</v>
       </c>
       <c r="P10">
-        <v>0.1530962790270258</v>
+        <v>0.06389210658948997</v>
       </c>
       <c r="Q10">
-        <v>1.826153943898667</v>
+        <v>1.015714463530667</v>
       </c>
       <c r="R10">
-        <v>16.435385495088</v>
+        <v>9.141430171775999</v>
       </c>
       <c r="S10">
-        <v>0.02164671009412339</v>
+        <v>0.01146971087385422</v>
       </c>
       <c r="T10">
-        <v>0.02164671009412339</v>
+        <v>0.01146971087385422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.797721</v>
+        <v>7.170964000000001</v>
       </c>
       <c r="H11">
-        <v>32.393163</v>
+        <v>21.512892</v>
       </c>
       <c r="I11">
-        <v>0.2711368654728898</v>
+        <v>0.1795168681406561</v>
       </c>
       <c r="J11">
-        <v>0.2711368654728898</v>
+        <v>0.1795168681406561</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4363026666666667</v>
+        <v>1.357753333333333</v>
       </c>
       <c r="N11">
-        <v>1.308908</v>
+        <v>4.073259999999999</v>
       </c>
       <c r="O11">
-        <v>0.2059614370289619</v>
+        <v>0.6124547266518232</v>
       </c>
       <c r="P11">
-        <v>0.2059614370289619</v>
+        <v>0.6124547266518232</v>
       </c>
       <c r="Q11">
-        <v>4.711074466222668</v>
+        <v>9.736400274213333</v>
       </c>
       <c r="R11">
-        <v>42.399670196004</v>
+        <v>87.62760246791998</v>
       </c>
       <c r="S11">
-        <v>0.05584373844432472</v>
+        <v>0.1099459544064769</v>
       </c>
       <c r="T11">
-        <v>0.05584373844432472</v>
+        <v>0.1099459544064769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.797721</v>
+        <v>7.170964000000001</v>
       </c>
       <c r="H12">
-        <v>32.393163</v>
+        <v>21.512892</v>
       </c>
       <c r="I12">
-        <v>0.2711368654728898</v>
+        <v>0.1795168681406561</v>
       </c>
       <c r="J12">
-        <v>0.2711368654728898</v>
+        <v>0.1795168681406561</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.357753333333333</v>
+        <v>0.7173469999999998</v>
       </c>
       <c r="N12">
-        <v>4.073259999999999</v>
+        <v>2.152041</v>
       </c>
       <c r="O12">
-        <v>0.6409422839440123</v>
+        <v>0.3235805429554008</v>
       </c>
       <c r="P12">
-        <v>0.6409422839440123</v>
+        <v>0.3235805429554009</v>
       </c>
       <c r="Q12">
-        <v>14.66064168015333</v>
+        <v>5.144069512508</v>
       </c>
       <c r="R12">
-        <v>131.94577512138</v>
+        <v>46.29662561257199</v>
       </c>
       <c r="S12">
-        <v>0.1737830818176144</v>
+        <v>0.05808816566260661</v>
       </c>
       <c r="T12">
-        <v>0.1737830818176144</v>
+        <v>0.05808816566260662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.170964000000001</v>
+      </c>
+      <c r="H13">
+        <v>21.512892</v>
+      </c>
+      <c r="I13">
+        <v>0.1795168681406561</v>
+      </c>
+      <c r="J13">
+        <v>0.1795168681406561</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.000161</v>
+      </c>
+      <c r="N13">
+        <v>0.000483</v>
+      </c>
+      <c r="O13">
+        <v>7.262380328602412E-05</v>
+      </c>
+      <c r="P13">
+        <v>7.262380328602412E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.001154525204</v>
+      </c>
+      <c r="R13">
+        <v>0.010390726836</v>
+      </c>
+      <c r="S13">
+        <v>1.303719771837014E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.303719771837014E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.269395</v>
+      </c>
+      <c r="H14">
+        <v>33.808185</v>
+      </c>
+      <c r="I14">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="J14">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1416426666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.424928</v>
+      </c>
+      <c r="O14">
+        <v>0.06389210658948997</v>
+      </c>
+      <c r="P14">
+        <v>0.06389210658948997</v>
+      </c>
+      <c r="Q14">
+        <v>1.59622715952</v>
+      </c>
+      <c r="R14">
+        <v>14.36604443568</v>
+      </c>
+      <c r="S14">
+        <v>0.01802501063640235</v>
+      </c>
+      <c r="T14">
+        <v>0.01802501063640235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.269395</v>
+      </c>
+      <c r="H15">
+        <v>33.808185</v>
+      </c>
+      <c r="I15">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="J15">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.357753333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.073259999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6124547266518232</v>
+      </c>
+      <c r="P15">
+        <v>0.6124547266518232</v>
+      </c>
+      <c r="Q15">
+        <v>15.3010586259</v>
+      </c>
+      <c r="R15">
+        <v>137.7095276331</v>
+      </c>
+      <c r="S15">
+        <v>0.1727835182073957</v>
+      </c>
+      <c r="T15">
+        <v>0.1727835182073957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.797721</v>
-      </c>
-      <c r="H13">
-        <v>32.393163</v>
-      </c>
-      <c r="I13">
-        <v>0.2711368654728898</v>
-      </c>
-      <c r="J13">
-        <v>0.2711368654728898</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3243146666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.972944</v>
-      </c>
-      <c r="O13">
-        <v>0.1530962790270258</v>
-      </c>
-      <c r="P13">
-        <v>0.1530962790270258</v>
-      </c>
-      <c r="Q13">
-        <v>3.501859286874667</v>
-      </c>
-      <c r="R13">
-        <v>31.516733581872</v>
-      </c>
-      <c r="S13">
-        <v>0.04151004521095071</v>
-      </c>
-      <c r="T13">
-        <v>0.04151004521095071</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.269395</v>
+      </c>
+      <c r="H16">
+        <v>33.808185</v>
+      </c>
+      <c r="I16">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="J16">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7173469999999998</v>
+      </c>
+      <c r="N16">
+        <v>2.152041</v>
+      </c>
+      <c r="O16">
+        <v>0.3235805429554008</v>
+      </c>
+      <c r="P16">
+        <v>0.3235805429554009</v>
+      </c>
+      <c r="Q16">
+        <v>8.084066695064999</v>
+      </c>
+      <c r="R16">
+        <v>72.75660025558498</v>
+      </c>
+      <c r="S16">
+        <v>0.0912873755435602</v>
+      </c>
+      <c r="T16">
+        <v>0.09128737554356021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.269395</v>
+      </c>
+      <c r="H17">
+        <v>33.808185</v>
+      </c>
+      <c r="I17">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="J17">
+        <v>0.2821163927527693</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.000161</v>
+      </c>
+      <c r="N17">
+        <v>0.000483</v>
+      </c>
+      <c r="O17">
+        <v>7.262380328602412E-05</v>
+      </c>
+      <c r="P17">
+        <v>7.262380328602412E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.001814372595</v>
+      </c>
+      <c r="R17">
+        <v>0.016329353355</v>
+      </c>
+      <c r="S17">
+        <v>2.048836541103984E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.048836541103984E-05</v>
       </c>
     </row>
   </sheetData>
